--- a/output/compo fish/Mann_Whitney_test_fish_prey_not_prey_rel_trace_only.xlsx
+++ b/output/compo fish/Mann_Whitney_test_fish_prey_not_prey_rel_trace_only.xlsx
@@ -26,16 +26,16 @@
     <t xml:space="preserve">As</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cu</t>
+  </si>
+  <si>
     <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cu</t>
   </si>
   <si>
     <t xml:space="preserve">Fe</t>
@@ -398,7 +398,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.231815983503849</v>
+        <v>0.000055527508301138</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -409,21 +409,21 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0240610482235163</v>
+        <v>0.00000000000681583725823273</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.660538202472032</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.380822683793518</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246026626586655</v>
+        <v>0.0114055311330627</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -442,10 +442,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.726737230832574</v>
+        <v>0.462343259588609</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -453,10 +453,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00272914689800175</v>
+        <v>0.0000000000481337518394799</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -464,10 +464,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0116267896757159</v>
+        <v>0.0000000000000000750761848812129</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -475,10 +475,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.552006847619833</v>
+        <v>0.278465241197607</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
